--- a/xlsx/和平_intext.xlsx
+++ b/xlsx/和平_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="404">
   <si>
     <t>和平</t>
   </si>
@@ -29,7 +29,7 @@
     <t>和平 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_政治學_和平</t>
+    <t>政策_政策_政治学_和平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E7%AC%A6%E5%8F%B7</t>
@@ -65,19 +65,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>人際關係</t>
+    <t>人际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E5%AD%B8</t>
   </si>
   <si>
-    <t>國際關係學</t>
+    <t>国际关系学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>國際關係</t>
+    <t>国际关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
@@ -143,19 +143,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%B3%BD%E4%BA%9E%E6%9B%B8</t>
   </si>
   <si>
-    <t>以賽亞書</t>
+    <t>以赛亚书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%B6%E7%A9%8C</t>
   </si>
   <si>
-    <t>耶穌</t>
+    <t>耶稣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%8C%E8%B3%BD%E4%BA%9E</t>
   </si>
   <si>
-    <t>彌賽亞</t>
+    <t>弥赛亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%9E%E7%9A%84%E5%9C%8B</t>
   </si>
   <si>
-    <t>神的國</t>
+    <t>神的国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E6%95%99</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AA_(%E4%BD%9B%E6%95%99)</t>
   </si>
   <si>
-    <t>貪 (佛教)</t>
+    <t>贪 (佛教)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9E%8B_(%E4%BD%9B%E6%95%99)</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98</t>
   </si>
   <si>
-    <t>知識</t>
+    <t>知识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%B3%E6%80%81</t>
@@ -227,19 +227,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A5%88%E7%A6%B1</t>
   </si>
   <si>
-    <t>祈禱</t>
+    <t>祈祷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9C%E5%9D%90</t>
   </si>
   <si>
-    <t>靜坐</t>
+    <t>静坐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E6%A5%B5%E6%8B%B3</t>
   </si>
   <si>
-    <t>太極拳</t>
+    <t>太极拳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9C%E4%BC%BD</t>
@@ -257,13 +257,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%99%82%E4%BB%A3%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>新時代運動</t>
+    <t>新时代运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%8A%B3%E8%88%9E</t>
   </si>
   <si>
-    <t>銳舞</t>
+    <t>锐舞</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PLUR</t>
@@ -275,13 +275,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9C%9F%E7%90%86%E5%A0%85%E5%9B%BA</t>
   </si>
   <si>
-    <t>真理堅固</t>
+    <t>真理坚固</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%AA%9E</t>
   </si>
   <si>
-    <t>梵語</t>
+    <t>梵语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E9%9B%84%E7%94%98%E5%9C%B0</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>非裔美國人民權運動</t>
+    <t>非裔美国人民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%BF%E7%A0%B4%E5%B4%99%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>拿破崙戰爭</t>
+    <t>拿破崙战争</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Swedish_neutrality</t>
@@ -353,7 +353,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E6%B2%BB%E4%B8%96</t>
   </si>
   <si>
-    <t>美利堅治世</t>
+    <t>美利坚治世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%A4%E7%AB%8B%E4%B8%BB%E4%B9%89</t>
@@ -365,25 +365,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%88%B6%E6%99%82%E4%BB%A3</t>
   </si>
   <si>
-    <t>江戶時代</t>
+    <t>江户时代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%88%B6%E5%B9%95%E5%BA%9C</t>
   </si>
   <si>
-    <t>江戶幕府</t>
+    <t>江户幕府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%96%A9%E6%B1%97%E5%9C%8B</t>
   </si>
   <si>
-    <t>可薩汗國</t>
+    <t>可萨汗国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%96%A9%E5%92%8C%E5%B9%B3</t>
   </si>
   <si>
-    <t>可薩和平</t>
+    <t>可萨和平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E6%B2%BB%E4%B8%96</t>
@@ -395,43 +395,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%AC%8A%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>主權國家</t>
+    <t>主权国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>國際組織</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E7%99%BC%E5%B1%95</t>
   </si>
   <si>
-    <t>經濟發展</t>
+    <t>经济发展</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>社會變遷</t>
+    <t>社会变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%92%8C%E5%B9%B3</t>
@@ -443,19 +437,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>國際聯盟</t>
+    <t>国际联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%88%90%E5%93%A1%E5%9C%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯合國成員國列表</t>
+    <t>联合国成员国列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B5%E8%92%82%E5%86%88%E5%9F%8E%E5%9B%BD</t>
@@ -473,55 +467,55 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國大會</t>
+    <t>联合国大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A9%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>審議會</t>
+    <t>审议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國安全理事會</t>
+    <t>联合国安全理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%B6%93%E6%BF%9F%E5%8F%8A%E7%A4%BE%E6%9C%83%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國經濟及社會理事會</t>
+    <t>联合国经济及社会理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E8%99%95</t>
   </si>
   <si>
-    <t>聯合國秘書處</t>
+    <t>联合国秘书处</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>國際法院</t>
+    <t>国际法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E8%A8%97%E7%AE%A1%E7%90%86%E4%BA%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國託管理事會</t>
+    <t>联合国讬管理事会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>聯合國機構</t>
+    <t>联合国机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%A1%9B%E7%94%9F%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>世界衛生組織</t>
+    <t>世界卫生组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E7%B2%AE%E9%A3%9F%E8%AE%A1%E5%88%92%E7%BD%B2</t>
@@ -533,19 +527,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%85%92%E7%AB%A5%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>聯合國兒童基金會</t>
+    <t>联合国儿童基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E7%A7%98%E6%9B%B8%E9%95%B7</t>
   </si>
   <si>
-    <t>聯合國秘書長</t>
+    <t>联合国秘书长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%98%E5%9F%BA%E6%96%87</t>
@@ -605,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%A1%E7%88%BE%E8%B3%BD%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>凡爾賽條約</t>
+    <t>凡尔赛条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E5%85%B3%E7%B3%BB%E5%8D%8F%E4%BC%9A</t>
@@ -617,19 +611,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%86%E5%92%B8%E6%A8%93</t>
   </si>
   <si>
-    <t>漆咸樓</t>
+    <t>漆咸楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E5%92%8C%E5%B9%B3%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾和平獎</t>
+    <t>诺贝尔和平奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%B4%85%E5%8D%81%E5%AD%97%E6%9C%83</t>
   </si>
   <si>
-    <t>國際紅十字會</t>
+    <t>国际红十字会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A8%E5%88%A9%C2%B7%E6%9D%9C%E5%8D%97</t>
@@ -641,19 +635,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AA%9E</t>
   </si>
   <si>
-    <t>挪威語</t>
+    <t>挪威语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E%E5%AE%B6</t>
   </si>
   <si>
-    <t>發明家</t>
+    <t>发明家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E8%AB%BE%E8%B2%9D%E7%88%BE</t>
   </si>
   <si>
-    <t>阿爾弗雷德·諾貝爾</t>
+    <t>阿尔弗雷德·诺贝尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94</t>
@@ -665,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E8%B2%9D%E7%88%BE%E7%8D%8E</t>
   </si>
   <si>
-    <t>諾貝爾獎</t>
+    <t>诺贝尔奖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AF%BA%E8%B4%9D%E5%B0%94%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -677,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%BE%B7%E5%93%A5%E7%88%BE%E6%91%A9</t>
   </si>
   <si>
-    <t>斯德哥爾摩</t>
+    <t>斯德哥尔摩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81</t>
@@ -707,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>挪威議會</t>
+    <t>挪威议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>民族國家</t>
+    <t>民族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E5%A4%87</t>
@@ -755,13 +749,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E8%92%82%C2%B7%E9%98%BF%E8%B5%AB%E8%92%82%E8%96%A9%E9%87%8C</t>
   </si>
   <si>
-    <t>馬爾蒂·阿赫蒂薩里</t>
+    <t>马尔蒂·阿赫蒂萨里</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E5%85%83</t>
   </si>
   <si>
-    <t>歐元</t>
+    <t>欧元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>社會運動</t>
+    <t>社会运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E4%B8%BB%E4%B9%89</t>
@@ -833,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%80%E5%BF%B5%E7%A2%91</t>
   </si>
   <si>
-    <t>紀念碑</t>
+    <t>纪念碑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Japanese_Peace_Bell</t>
@@ -845,19 +839,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B8%82</t>
   </si>
   <si>
-    <t>紐約市</t>
+    <t>纽约市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%82%E9%96%93%E5%99%B4%E6%B3%89</t>
   </si>
   <si>
-    <t>時間噴泉</t>
+    <t>时间喷泉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%9D%E5%8A%A0%E5%93%A5</t>
@@ -881,7 +875,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>北達科他州</t>
+    <t>北达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%B0%BC%E6%89%98%E5%B7%B4</t>
@@ -893,13 +887,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E6%8B%B1%E9%96%80</t>
   </si>
   <si>
-    <t>和平拱門</t>
+    <t>和平拱门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%91%E8%A9%A9%E7%9C%81</t>
   </si>
   <si>
-    <t>卑詩省</t>
+    <t>卑诗省</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A0%E9%87%8C</t>
@@ -923,7 +917,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%AD%AF%E5%A1%9E%E7%88%BE</t>
   </si>
   <si>
-    <t>布魯塞爾</t>
+    <t>布鲁塞尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E8%81%94%E7%9B%9F%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -935,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%89%B9%E9%A0%93-%E5%86%B0%E5%B7%9D%E5%9C%8B%E9%9A%9B%E5%92%8C%E5%B9%B3%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>沃特頓-冰川國際和平公園</t>
+    <t>沃特顿-冰川国际和平公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%BC%AF%E5%A1%94%E7%9C%81</t>
@@ -953,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E7%B4%80%E5%BF%B5%E7%A2%91_(%E9%A6%99%E6%B8%AF)</t>
   </si>
   <si>
-    <t>和平紀念碑 (香港)</t>
+    <t>和平纪念碑 (香港)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -965,7 +959,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E7%92%B0</t>
   </si>
   <si>
-    <t>中環</t>
+    <t>中环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%AE%E6%89%93%E9%81%93</t>
@@ -977,37 +971,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E4%BA%8C%E5%85%AB%E5%92%8C%E5%B9%B3%E7%B4%80%E5%BF%B5%E7%A2%91</t>
   </si>
   <si>
-    <t>二二八和平紀念碑</t>
+    <t>二二八和平纪念碑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3</t>
   </si>
   <si>
-    <t>臺灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E5%8C%97%E5%B8%82</t>
   </si>
   <si>
-    <t>臺北市</t>
+    <t>台北市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E4%BA%8C%E5%85%AB%E5%92%8C%E5%B9%B3%E5%85%AC%E5%9C%92</t>
   </si>
   <si>
-    <t>二二八和平公園</t>
+    <t>二二八和平公园</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E4%BA%8C%E5%85%AB%E4%BA%8B%E4%BB%B6%E7%B4%80%E5%BF%B5%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>二二八事件紀念基金會</t>
+    <t>二二八事件纪念基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E8%88%87%E8%A1%9D%E7%AA%81%E7%A0%94%E7%A9%B6</t>
   </si>
   <si>
-    <t>和平與衝突研究</t>
+    <t>和平与冲突研究</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%9A%B4%E5%8A%9B</t>
@@ -1031,31 +1025,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
+    <t>政治学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>地理學</t>
+    <t>地理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86</t>
@@ -1067,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>人類學</t>
+    <t>人类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E7%A0%94%E7%A9%B6</t>
@@ -1103,7 +1097,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E7%B4%80%E5%BF%B5%E6%97%A5</t>
   </si>
   <si>
-    <t>和平紀念日</t>
+    <t>和平纪念日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E5%92%8C%E5%B9%B3%E6%97%A5</t>
@@ -1121,7 +1115,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%92%8C%E5%B9%B3%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>全球和平指數</t>
+    <t>全球和平指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%90%88%E4%BD%9C%E8%BF%90%E5%8A%A8</t>
@@ -1133,9 +1127,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AF%BA%E8%B4%9D%E5%B0%94%E5%92%8C%E5%B9%B3%E5%A5%96</t>
   </si>
   <si>
-    <t>诺贝尔和平奖</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E5%8F%91%E5%B1%95</t>
   </si>
   <si>
@@ -1187,7 +1178,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%92%8C</t>
   </si>
   <si>
-    <t>維和</t>
+    <t>维和</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Structural_violence</t>
@@ -1211,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1229,7 +1220,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E5%92%8C%E5%B9%B3</t>
@@ -3404,7 +3395,7 @@
         <v>125</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="G63" t="n">
         <v>23</v>
@@ -3430,10 +3421,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3459,10 +3450,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="G65" t="n">
         <v>2</v>
@@ -3488,10 +3479,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F66" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>2</v>
@@ -3517,10 +3508,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3546,10 +3537,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F68" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3575,10 +3566,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3604,10 +3595,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F70" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>6</v>
@@ -3633,10 +3624,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3662,10 +3653,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F72" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>7</v>
@@ -3691,10 +3682,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F73" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3720,10 +3711,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F74" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3749,10 +3740,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F75" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3778,10 +3769,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3807,10 +3798,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3836,10 +3827,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3865,10 +3856,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3894,10 +3885,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3923,10 +3914,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3952,10 +3943,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3981,10 +3972,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4010,10 +4001,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4039,10 +4030,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4068,10 +4059,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4097,10 +4088,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4126,10 +4117,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4155,10 +4146,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4184,10 +4175,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4213,10 +4204,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4242,10 +4233,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>6</v>
@@ -4271,10 +4262,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4300,10 +4291,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4329,10 +4320,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4358,10 +4349,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4387,10 +4378,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4416,10 +4407,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4474,10 +4465,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F100" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4503,10 +4494,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F101" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4532,10 +4523,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>7</v>
@@ -4561,10 +4552,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4590,10 +4581,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -4619,10 +4610,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F105" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4648,10 +4639,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F106" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4677,10 +4668,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4706,10 +4697,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>2</v>
@@ -4735,10 +4726,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>3</v>
@@ -4764,10 +4755,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F110" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>3</v>
@@ -4793,10 +4784,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F111" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4822,10 +4813,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F112" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>12</v>
@@ -4851,10 +4842,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F113" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4880,10 +4871,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F114" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4909,10 +4900,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4938,10 +4929,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F116" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4967,10 +4958,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F117" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4996,10 +4987,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F118" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5025,10 +5016,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5054,10 +5045,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5083,10 +5074,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5112,10 +5103,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5141,10 +5132,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5170,10 +5161,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5199,10 +5190,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5228,10 +5219,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5257,10 +5248,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -5286,10 +5277,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5315,10 +5306,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5344,10 +5335,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5373,10 +5364,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5402,10 +5393,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5431,10 +5422,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5460,10 +5451,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5489,10 +5480,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5518,10 +5509,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5547,10 +5538,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>5</v>
@@ -5576,10 +5567,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5605,10 +5596,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>8</v>
@@ -5634,10 +5625,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5663,10 +5654,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5692,10 +5683,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5721,10 +5712,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5750,10 +5741,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5779,10 +5770,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5808,10 +5799,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5837,10 +5828,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5866,10 +5857,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5895,10 +5886,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5924,10 +5915,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5953,10 +5944,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5982,10 +5973,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F152" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6011,10 +6002,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F153" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6040,10 +6031,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F154" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6069,10 +6060,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6098,10 +6089,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F156" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6127,10 +6118,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F157" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G157" t="n">
         <v>4</v>
@@ -6156,10 +6147,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -6185,10 +6176,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6214,10 +6205,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F160" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6243,10 +6234,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F161" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6272,10 +6263,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6301,10 +6292,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F163" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6330,10 +6321,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6359,10 +6350,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6388,10 +6379,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F166" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>5</v>
@@ -6417,10 +6408,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F167" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>7</v>
@@ -6446,10 +6437,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F168" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6475,10 +6466,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F169" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6504,10 +6495,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F170" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6533,10 +6524,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F171" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6562,10 +6553,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F172" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6591,10 +6582,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F173" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6620,10 +6611,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F174" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6649,10 +6640,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F175" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>3</v>
@@ -6678,10 +6669,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F176" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6707,10 +6698,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F177" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6736,10 +6727,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F178" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6765,10 +6756,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F179" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6794,10 +6785,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F180" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6823,10 +6814,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F181" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6852,10 +6843,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F182" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6881,10 +6872,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F183" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6910,10 +6901,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F184" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -6939,10 +6930,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F185" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6968,10 +6959,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F186" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6997,10 +6988,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F187" t="s">
-        <v>372</v>
+        <v>200</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7026,10 +7017,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F188" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7055,10 +7046,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F189" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7084,10 +7075,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F190" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7113,10 +7104,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F191" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7142,10 +7133,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7171,10 +7162,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7200,10 +7191,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7229,10 +7220,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G195" t="n">
         <v>2</v>
@@ -7258,10 +7249,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7287,10 +7278,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7316,10 +7307,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G198" t="n">
         <v>2</v>
@@ -7345,10 +7336,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7374,10 +7365,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G200" t="n">
         <v>3</v>
@@ -7403,10 +7394,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7432,10 +7423,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7461,10 +7452,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7490,10 +7481,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>

--- a/xlsx/和平_intext.xlsx
+++ b/xlsx/和平_intext.xlsx
@@ -29,7 +29,7 @@
     <t>和平 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_政治學_和平</t>
+    <t>体育运动_体育运动_奥林匹克运动会_和平</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E5%B9%B3%E7%AC%A6%E5%8F%B7</t>
